--- a/results_exact/5_transbordo_porto.xlsx
+++ b/results_exact/5_transbordo_porto.xlsx
@@ -444,39 +444,39 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
+          <t>IPAMERI,GO, Brazil</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>178404.652</v>
       </c>
       <c r="D2" t="n">
-        <v>76133.12408871179</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -485,20 +485,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPAMERI,GO, Brazil</t>
+          <t>FIGUEIRÓPOLIS, TO, Brazil</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>178404.652</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>970238.2125521862</v>
       </c>
     </row>
     <row r="4">
@@ -508,51 +508,51 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>70458.22855218612</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>729132.0559999999</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>658673.8274478138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RIO VERDE, GO, Brazil</t>
+          <t>ANÁPOLIS, GO, Brazil</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1931608.808088712</v>
+        <v>294755.512</v>
       </c>
       <c r="D5" t="n">
-        <v>434192.011911288</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>465403.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SÃO SIMÃO, GO, Brazil</t>
+          <t>RIO VERDE, GO, Brazil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>394941.8754478134</v>
       </c>
       <c r="C6" t="n">
-        <v>736888.7800000001</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2436262.384552186</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>94696</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -580,7 +580,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ANÁPOLIS, GO, Brazil</t>
+          <t>SÃO SIMÃO, GO, Brazil</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -590,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>294755.512</v>
+        <v>736888.7800000001</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>19892118.698</v>
       </c>
       <c r="C2" t="n">
-        <v>12989072.30077512</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -656,27 +656,27 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>20860855.95836001</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>106415727.1527238</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>8407075.830846848</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>124397220.07416</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>77716924.90056755</v>
       </c>
     </row>
     <row r="5">
@@ -684,24 +684,24 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>225863017.9298131</v>
+        <v>36322721.74376</v>
       </c>
       <c r="C5" t="n">
-        <v>74077499.15218484</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>79402480.89840001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>55619664.31931557</v>
       </c>
       <c r="B6" t="n">
-        <v>68059047.72080001</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>228570136.9186861</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>11072803.28</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>50288237.90232001</v>
+        <v>60159599.99920001</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -757,22 +757,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ILHÉUS, BA, Brazil</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>VITÓRIA, ES, Brazil</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>SANTOS, SP, Brazil</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>SÃO LUIZ, MA, Brazil</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>ILHÉUS, BA, Brazil</t>
         </is>
       </c>
     </row>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4946632922.190081</v>
       </c>
       <c r="C2" t="n">
-        <v>2065019631.157401</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -795,27 +795,27 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3328602635.1552</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>26316547229.62299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>2135303551.591125</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>21777278769.3744</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>19672874673.91484</v>
       </c>
     </row>
     <row r="5">
@@ -823,24 +823,24 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>42274707471.62753</v>
+        <v>9313616874.408241</v>
       </c>
       <c r="C5" t="n">
-        <v>18293542838.81091</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>17410105087.6872</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>14774234490.13334</v>
       </c>
       <c r="B6" t="n">
-        <v>13158070277.875</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>53319429482.71301</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2129234825.2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>11180695556.7352</v>
+        <v>13158070277.875</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1289733769.00629</v>
+        <v>1167716706.325241</v>
       </c>
       <c r="B2" t="n">
-        <v>178647512297355.9</v>
+        <v>161628183969530.2</v>
       </c>
     </row>
   </sheetData>
